--- a/data/2семестр.xlsx
+++ b/data/2семестр.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Test\Тестирование\шпора\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Test\Тестирование\TestCase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB84CB1-EAA2-46A4-BD7B-61A291A8AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC8E899-F007-410C-8E48-814421A88108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4245" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1665" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
